--- a/Pibic_pt2/testando_fftTGF.xlsx
+++ b/Pibic_pt2/testando_fftTGF.xlsx
@@ -444,630 +444,504 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(-0.479225726908007-1.0443189687136427j)</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.09375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>(-0.30283012236557766+0.5956651388723692j)</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(0.2114656842663076+0.7712743715470658j)</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.28125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(-0.9309351858004572+0.31377944709901096j)</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>(0.37378064185566984-1.448642582240657j)</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.4687499999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>(0.30364613254192846+0.39094838851463787j)</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>(-0.5619502200053408+0.6760718931691592j)</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.65625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>(0.5327642027385427+0.5253955067155276j)</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>(-0.35957864033488646-0.0859210681734294j)</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0.84375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>(-0.49394348424278145+0.11319670868863292j)</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0.9374999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>(-0.3937660612762729+0.06558061894397384j)</t>
-        </is>
+      <c r="B12" t="n">
+        <v>1.03125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>(-0.21066497986925603-0.5265798043643811j)</t>
-        </is>
+      <c r="B13" t="n">
+        <v>1.125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>(0.0874031213105027+1.0858284515984464j)</t>
-        </is>
+      <c r="B14" t="n">
+        <v>1.21875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>(0.3344512276428138-0.12512474685290126j)</t>
-        </is>
+      <c r="B15" t="n">
+        <v>1.3125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>(1.2234763420114714+0.04881040449254955j)</t>
-        </is>
+      <c r="B16" t="n">
+        <v>1.40625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>(-0.15016276939474663+0.3060537233139472j)</t>
-        </is>
+      <c r="B17" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>(1.1051233853596367-0.39328377593601954j)</t>
-        </is>
+      <c r="B18" t="n">
+        <v>1.59375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>(-1.9365147882403062-0.4613643112468947j)</t>
-        </is>
+      <c r="B19" t="n">
+        <v>1.6875</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>(-1.4304239249880364-0.9143244189138403j)</t>
-        </is>
+      <c r="B20" t="n">
+        <v>1.78125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>(0.42140293037997906+0.5197157022757128j)</t>
-        </is>
+      <c r="B21" t="n">
+        <v>1.875</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>(0.28241151585065044+0.47318115366363306j)</t>
-        </is>
+      <c r="B22" t="n">
+        <v>1.96875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>(0.20345795956793758+0.5875388187231518j)</t>
-        </is>
+      <c r="B23" t="n">
+        <v>2.0625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>(-0.2783531439925302+0.21053349795686963j)</t>
-        </is>
+      <c r="B24" t="n">
+        <v>2.15625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>(0.11082621016673423+0.2969280931056602j)</t>
-        </is>
+      <c r="B25" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>(-0.12049625895471253-0.1466336986641678j)</t>
-        </is>
+      <c r="B26" t="n">
+        <v>2.34375</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>(-0.9046313375292852-0.16432680422097287j)</t>
-        </is>
+      <c r="B27" t="n">
+        <v>2.4375</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>(1.0135529460012784+1.1897996983044834j)</t>
-        </is>
+      <c r="B28" t="n">
+        <v>2.53125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>(-0.5568959465475948+0.7230882570573486j)</t>
-        </is>
+      <c r="B29" t="n">
+        <v>2.625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>(0.39483040243386774-0.6402930276254198j)</t>
-        </is>
+      <c r="B30" t="n">
+        <v>2.71875</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>(0.21990881755496935-0.2824198491156599j)</t>
-        </is>
+      <c r="B31" t="n">
+        <v>2.8125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>(-0.2895504227876295-0.3259126611052842j)</t>
-        </is>
+      <c r="B32" t="n">
+        <v>2.90625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>(1.1775693440128312e-16-7.850462293418875e-17j)</t>
-        </is>
+      <c r="B33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>(0.9910200157403078+0.3378832264313766j)</t>
-        </is>
+      <c r="B34" t="n">
+        <v>3.09375</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>(-0.06602108992412527-0.2068001302055771j)</t>
-        </is>
+      <c r="B35" t="n">
+        <v>3.1875</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>(-0.5297330836310739+1.842890497092034j)</t>
-        </is>
+      <c r="B36" t="n">
+        <v>3.28125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>(-0.8846761121207819-0.13128085203041104j)</t>
-        </is>
+      <c r="B37" t="n">
+        <v>3.375</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>(0.5313001444024582-0.48540102551615777j)</t>
-        </is>
+      <c r="B38" t="n">
+        <v>3.46875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>(0.16297008442104466+1.1785564296867423j)</t>
-        </is>
+      <c r="B39" t="n">
+        <v>3.5625</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>(0.9489092509765888-0.18345073584816862j)</t>
-        </is>
+      <c r="B40" t="n">
+        <v>3.65625</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>(0.96713899252166+0.3685833201276089j)</t>
-        </is>
+      <c r="B41" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>(-0.12775834342397957+0.7886588558817615j)</t>
-        </is>
+      <c r="B42" t="n">
+        <v>3.84375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>(0.4323781432526064-1.6466888503688866j)</t>
-        </is>
+      <c r="B43" t="n">
+        <v>3.9375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>(0.3603967193467116-0.1877700910297317j)</t>
-        </is>
+      <c r="B44" t="n">
+        <v>4.03125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>(0.2748167221949984-0.8106440625107558j)</t>
-        </is>
+      <c r="B45" t="n">
+        <v>4.125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>(-0.33153925590734123-0.8295891820871951j)</t>
-        </is>
+      <c r="B46" t="n">
+        <v>4.21875</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>(0.698343241452889-0.17451837857883715j)</t>
-        </is>
+      <c r="B47" t="n">
+        <v>4.3125</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>(-0.6425366638873438+0.2892542530436036j)</t>
-        </is>
+      <c r="B48" t="n">
+        <v>4.40625</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>(0.5579249056821644+0.5115105013538724j)</t>
-        </is>
+      <c r="B49" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>(-0.07643124344181511-0.314036512176029j)</t>
-        </is>
+      <c r="B50" t="n">
+        <v>4.59375</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>(-1.133569754989069+0.020181088913777866j)</t>
-        </is>
+      <c r="B51" t="n">
+        <v>4.6875</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>(-0.14631709574388607+0.29059823568182425j)</t>
-        </is>
+      <c r="B52" t="n">
+        <v>4.78125</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>(-0.612855920793812-0.32407484525096864j)</t>
-        </is>
+      <c r="B53" t="n">
+        <v>4.875</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>(0.3869993237054099-0.05651509102059478j)</t>
-        </is>
+      <c r="B54" t="n">
+        <v>4.96875</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>(0.2955267744622357-0.4383671299606478j)</t>
-        </is>
+      <c r="B55" t="n">
+        <v>5.0625</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>(0.32507535846620456+0.9700606917758867j)</t>
-        </is>
+      <c r="B56" t="n">
+        <v>5.156249999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>(-0.7497289707073632+0.12485115487016775j)</t>
-        </is>
+      <c r="B57" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>(0.08632927647713098-0.9375179550224725j)</t>
-        </is>
+      <c r="B58" t="n">
+        <v>5.34375</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>(2.051670197089143-0.5410059030565975j)</t>
-        </is>
+      <c r="B59" t="n">
+        <v>5.4375</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>(0.0955933806106049-0.41428116895517864j)</t>
-        </is>
+      <c r="B60" t="n">
+        <v>5.531250000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>(-1.2791301812867077-1.2324323643997286j)</t>
-        </is>
+      <c r="B61" t="n">
+        <v>5.625</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>(-1.1145767849070676+1.5624460118338679j)</t>
-        </is>
+      <c r="B62" t="n">
+        <v>5.71875</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>(0.03575237300615717+1.2219981362435361j)</t>
-        </is>
+      <c r="B63" t="n">
+        <v>5.812499999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>(0.2660290548694133+0.015281641600286945j)</t>
-        </is>
+      <c r="B64" t="n">
+        <v>5.90625</v>
       </c>
     </row>
   </sheetData>
